--- a/biology/Médecine/Ligament_collatéral_tibial_de_l'articulation_du_genou/Ligament_collatéral_tibial_de_l'articulation_du_genou.xlsx
+++ b/biology/Médecine/Ligament_collatéral_tibial_de_l'articulation_du_genou/Ligament_collatéral_tibial_de_l'articulation_du_genou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_tibial_de_l%27articulation_du_genou</t>
+          <t>Ligament_collatéral_tibial_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral tibial de l'articulation du genou (ou ligament latéral interne du genou dans l'ancienne nomenclature anatomique) est un ligament capsulaire du côté médial de l'articulation fémoro-tibiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_tibial_de_l%27articulation_du_genou</t>
+          <t>Ligament_collatéral_tibial_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral tibial de l'articulation du genou est une large bande de tissu conjonctif fibreux située légèrement en arrière, du côté interne de l'articulation du genou et adhérant à la capsule.
 Il s'insère sur la face médiale sous-cutanée du condyle médial du fémur et sur la face médiale de l'épiphyse proximale du tibia en arrière de l'insertion des muscles de la patte d'oie. Il est orienté de haut en bas et légèrement d’arrière en avant.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_tibial_de_l%27articulation_du_genou</t>
+          <t>Ligament_collatéral_tibial_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Anatomie fonctionnelle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral tibial de l'articulation de genou s'oppose au genu valgum.
 </t>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ligament_collat%C3%A9ral_tibial_de_l%27articulation_du_genou</t>
+          <t>Ligament_collatéral_tibial_de_l'articulation_du_genou</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,7 +594,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ligament collatéral tibial de l'articulation du genou peut être blessé lors d'un valgus forcé.
 </t>
